--- a/data/trans_bre/P43_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>176,63%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>141,81%</t>
+          <t>79,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-14,43%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 13,55</t>
+          <t>-4,6; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 20,06</t>
+          <t>-1,47; 9,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 18,97</t>
+          <t>-3,16; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 155,68</t>
+          <t>-8,07; 4,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,63; 452,14</t>
+          <t>-54,35; 170,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 350,75</t>
+          <t>-23,96; 280,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 225,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-54,91; 74,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>-22,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-12,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 13,77</t>
+          <t>-7,33; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 13,99</t>
+          <t>-5,53; 6,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 12,5</t>
+          <t>-6,49; 4,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 260,99</t>
+          <t>-7,63; 6,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 167,74</t>
+          <t>-70,95; 78,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 169,53</t>
+          <t>-50,82; 164,19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-63,11; 111,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-62,65; 132,79</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>-18,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,65%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>204,26%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-53,16%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 32,85</t>
+          <t>3,17; 26,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 25,77</t>
+          <t>-3,25; 18,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 29,66</t>
+          <t>2,2; 21,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-68,65; 1050,93</t>
+          <t>-62,18; 10,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 501,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 802,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-97,02; 136,27</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-25,91%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,49</t>
+          <t>-2,48; 4,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,68</t>
+          <t>-0,61; 7,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,78</t>
+          <t>-1,31; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 137,68</t>
+          <t>-11,09; 1,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,27; 197,11</t>
+          <t>-34,01; 113,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 191,57</t>
+          <t>-9,05; 166,14</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 144,2</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; 21,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P43_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>79,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>49,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.401462432517299</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.13338348692813</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.979885256968476</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.565560189123402</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.973387021539416</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.300486702880996</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.174503136556906</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.103882524238361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 5,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 9,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 8,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 4,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-54,35; 170,32</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-23,96; 280,56</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-36,74; 225,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-54,91; 74,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.9224730717784225</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3076325543996338</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.029864619967445</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.853791172222315</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1829136818156702</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.01484517781156164</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.0160369460086733</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3991667208976088</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.39924592183666</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.41736365024456</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.65556455667875</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.27044527199883</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.332381529836017</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.090848867907245</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.870160887857081</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.349636854646224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-22,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-12,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 3,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 6,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 4,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 6,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-70,95; 78,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-50,82; 164,19</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,11; 111,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-62,65; 132,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3351688696240515</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.129061475453008</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.717558013353796</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6440960915473137</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.02848895944842151</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3158704990173493</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2419083013195421</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.04337721214960245</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-18,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>204,26%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-53,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.27061142161302</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.127231976447907</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.364009582402874</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.780189710911756</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5978326897389624</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.405595923215777</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4835829410860826</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5286665598861546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,17; 26,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 18,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 21,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-62,18; 10,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-97,02; 136,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.13873067043519</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.2053256154657</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.22303004749963</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.36644682826737</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.613567454329914</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.091788880645238</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.905640279983851</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.349505018919089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,81%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-25,91%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>31.60930625531165</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.809068710033</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.52156162361552</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-18.9601919140844</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.054919622047707</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.422969038411911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 7,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 5,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 1,74</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-34,01; 113,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 166,14</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 144,2</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-58,35; 21,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>8.680232910230302</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.265008187639131</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.380115664277639</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-66.17547638071434</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.9385041057679478</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>63.54557282167558</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>36.7378228245159</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>39.2484851263974</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.3080171232818</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.428660850499315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.499603921651312</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.086827789690187</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.80515063023244</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.396279991685465</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6809976494470209</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8520373653636639</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9011505785114374</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07448094735517526</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.017041845351427</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.786723690551257</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.338790180729008</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.70698043441189</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.08359969437588263</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.09555512537799082</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.06708336206242595</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5413725889587886</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.284445149808</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.17224276551394</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.79137024758874</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.187925497013813</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.194589292897368</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.147324789673399</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.512449430659397</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4583210540624107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1017,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
